--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_22_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_22_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>103844.8192716836</v>
+        <v>18627218.88558004</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>103844.8192716836</v>
+        <v>18627218.88558004</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18796.20815017607</v>
+        <v>2279228.894566709</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18796.20815017607</v>
+        <v>2279228.894566709</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341977621.276996</v>
+        <v>52496677.79929387</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10861.18373779419</v>
+        <v>1174156.927333878</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20663.83430675362</v>
+        <v>2226544.005783698</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30523.7831593494</v>
+        <v>3290045.785593486</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40591.56615071482</v>
+        <v>4315005.638640057</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50629.11277555087</v>
+        <v>5344136.963883909</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60118.53290295174</v>
+        <v>6401351.560059405</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70002.79227039655</v>
+        <v>7525305.839722936</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79754.29491505795</v>
+        <v>8623927.053438094</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89642.30422301144</v>
+        <v>9634561.103117542</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99098.63972253331</v>
+        <v>10715883.08814713</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>107617.4204156924</v>
+        <v>11677909.37555559</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>116978.9088651237</v>
+        <v>12774103.69884017</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>126340.397314555</v>
+        <v>13870298.02212476</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>136371.4325686348</v>
+        <v>14905608.15584015</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>147306.5011408331</v>
+        <v>15759858.71566352</v>
       </c>
     </row>
   </sheetData>
@@ -27055,7 +27055,7 @@
         <v>77</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>124</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>18</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>139</v>
